--- a/Code/Results/Cases/Case_1_141/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_141/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.725167156546307</v>
+        <v>4.990939164366616</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.116652021301995</v>
+        <v>6.507840982241279</v>
       </c>
       <c r="E2">
-        <v>10.31053767892597</v>
+        <v>9.618012127186548</v>
       </c>
       <c r="F2">
-        <v>34.82991223333289</v>
+        <v>35.52019024459483</v>
       </c>
       <c r="G2">
-        <v>2.068224493907945</v>
+        <v>3.673815597944844</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>15.59184089098921</v>
+        <v>22.04732753250851</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>20.67340706440376</v>
+        <v>15.51992752456134</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.69663100298665</v>
+        <v>16.55245628148672</v>
       </c>
       <c r="N2">
-        <v>13.39535376098186</v>
+        <v>20.09511346026386</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.454218676245366</v>
+        <v>4.926753005089897</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.211620070548313</v>
+        <v>6.531579384626017</v>
       </c>
       <c r="E3">
-        <v>9.706739016264185</v>
+        <v>9.493302215870655</v>
       </c>
       <c r="F3">
-        <v>33.18751618158463</v>
+        <v>35.22932169372265</v>
       </c>
       <c r="G3">
-        <v>2.079389767689892</v>
+        <v>3.677683319687123</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>15.63474779567949</v>
+        <v>22.09362646585049</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>19.1882569632853</v>
+        <v>15.13835380996798</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.36466143897101</v>
+        <v>16.31641927516037</v>
       </c>
       <c r="N3">
-        <v>13.58935249312441</v>
+        <v>20.15031718537049</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.279539497921705</v>
+        <v>4.887998066698472</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.271151441143179</v>
+        <v>6.546842910673605</v>
       </c>
       <c r="E4">
-        <v>9.329094939829211</v>
+        <v>9.419053196848148</v>
       </c>
       <c r="F4">
-        <v>32.17941677550224</v>
+        <v>35.06039453937645</v>
       </c>
       <c r="G4">
-        <v>2.086385744725072</v>
+        <v>3.680179439977323</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>15.67129766562248</v>
+        <v>22.12540637956185</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>18.23144102409159</v>
+        <v>14.90425849524191</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.5074459090459</v>
+        <v>16.17496664291349</v>
       </c>
       <c r="N4">
-        <v>13.7127249222098</v>
+        <v>20.18612116220475</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.206307890223857</v>
+        <v>4.872390437883902</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.295718771055991</v>
+        <v>6.553236201918351</v>
       </c>
       <c r="E5">
-        <v>9.173563082285369</v>
+        <v>9.389414507076193</v>
       </c>
       <c r="F5">
-        <v>31.76903433624625</v>
+        <v>34.99404489475332</v>
       </c>
       <c r="G5">
-        <v>2.089275010989867</v>
+        <v>3.681227258455599</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>15.68862858209969</v>
+        <v>22.13919803528738</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.83001705016696</v>
+        <v>14.80906765839697</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.14802214114831</v>
+        <v>16.11826912038409</v>
       </c>
       <c r="N5">
-        <v>13.76405244904921</v>
+        <v>20.20119178115052</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.194025518481241</v>
+        <v>4.869810589602809</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.299816817985951</v>
+        <v>6.554308276734658</v>
       </c>
       <c r="E6">
-        <v>9.147641833538176</v>
+        <v>9.384531342483179</v>
       </c>
       <c r="F6">
-        <v>31.70092796348433</v>
+        <v>34.98317955709946</v>
       </c>
       <c r="G6">
-        <v>2.089757171459993</v>
+        <v>3.681403101405924</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>15.69164988377337</v>
+        <v>22.14153887340739</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.76265944923414</v>
+        <v>14.79327832834815</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.08772445720392</v>
+        <v>16.10891370642628</v>
       </c>
       <c r="N6">
-        <v>13.77263844888476</v>
+        <v>20.20372325728087</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.278560102812357</v>
+        <v>4.887786799501153</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.271481515549941</v>
+        <v>6.546928430911449</v>
       </c>
       <c r="E7">
-        <v>9.327003858121467</v>
+        <v>9.418650931260622</v>
       </c>
       <c r="F7">
-        <v>32.17387997665816</v>
+        <v>35.05948957157163</v>
       </c>
       <c r="G7">
-        <v>2.086424551283439</v>
+        <v>3.680193447048997</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>15.67152169664139</v>
+        <v>22.125588975714</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>18.22607417458947</v>
+        <v>14.90297367865235</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.5026397475065</v>
+        <v>16.17419807847738</v>
       </c>
       <c r="N7">
-        <v>13.71341290347667</v>
+        <v>20.18632246522423</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.633493282229477</v>
+        <v>4.968684036764326</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.149143408737969</v>
+        <v>6.515883336391759</v>
       </c>
       <c r="E8">
-        <v>10.10382827150645</v>
+        <v>9.57455087142322</v>
       </c>
       <c r="F8">
-        <v>34.2637213212952</v>
+        <v>35.41792908028361</v>
       </c>
       <c r="G8">
-        <v>2.072047037010163</v>
+        <v>3.675124080969409</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>15.60443683349265</v>
+        <v>22.06259456072215</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>20.17051716417959</v>
+        <v>15.38841335169359</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.2454168439241</v>
+        <v>16.47039309890616</v>
       </c>
       <c r="N8">
-        <v>13.46134891598539</v>
+        <v>20.11375171437296</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.262026776705157</v>
+        <v>5.131619422700456</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.919047792110687</v>
+        <v>6.460451148125277</v>
       </c>
       <c r="E9">
-        <v>11.64385002266799</v>
+        <v>9.897139049378055</v>
       </c>
       <c r="F9">
-        <v>38.35454583143508</v>
+        <v>36.19471375917445</v>
       </c>
       <c r="G9">
-        <v>2.044815109926986</v>
+        <v>3.666140174219825</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.56009257784088</v>
+        <v>21.96574255728804</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.63769653988818</v>
+        <v>16.335282790329</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.36037295684152</v>
+        <v>17.07557060641579</v>
       </c>
       <c r="N9">
-        <v>13.00188651768133</v>
+        <v>19.98657292281171</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.681072135189408</v>
+        <v>5.252735025288806</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.756521884550849</v>
+        <v>6.423028562558724</v>
       </c>
       <c r="E10">
-        <v>12.8532448917011</v>
+        <v>10.14226578494014</v>
       </c>
       <c r="F10">
-        <v>41.35016074004778</v>
+        <v>36.80637305569483</v>
       </c>
       <c r="G10">
-        <v>2.025155149648784</v>
+        <v>3.660115409898228</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.58999707300622</v>
+        <v>21.91096067023519</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.99050706453956</v>
+        <v>17.01948969477802</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.47968995195276</v>
+        <v>17.53064376098246</v>
       </c>
       <c r="N10">
-        <v>12.68751655781871</v>
+        <v>19.90234213983214</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.862186047116807</v>
+        <v>5.307886217678909</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.684281745249904</v>
+        <v>6.406717944338693</v>
       </c>
       <c r="E11">
-        <v>13.3869113130713</v>
+        <v>10.25507475628799</v>
       </c>
       <c r="F11">
-        <v>42.71209349679243</v>
+        <v>37.09257839567319</v>
       </c>
       <c r="G11">
-        <v>2.016224335016045</v>
+        <v>3.657497937132963</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.6194359176152</v>
+        <v>21.88961737745928</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>27.0227646702877</v>
+        <v>17.32665554504886</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>24.41096930252169</v>
+        <v>17.73900667693052</v>
       </c>
       <c r="N11">
-        <v>12.55015762486695</v>
+        <v>19.866019469106</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.929385741583038</v>
+        <v>5.3287578994862</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.657210083668333</v>
+        <v>6.400643878552204</v>
       </c>
       <c r="E12">
-        <v>13.58686445911938</v>
+        <v>10.29794025881503</v>
       </c>
       <c r="F12">
-        <v>43.22798903592776</v>
+        <v>37.20201756042348</v>
       </c>
       <c r="G12">
-        <v>2.01283819815402</v>
+        <v>3.65652435948944</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>15.63306930924371</v>
+        <v>21.88205138656825</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>27.40857782544824</v>
+        <v>17.44226209713271</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>24.75927612482631</v>
+        <v>17.81802572647701</v>
       </c>
       <c r="N12">
-        <v>12.4990255011006</v>
+        <v>19.85255168854276</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.914974881075413</v>
+        <v>5.324263707112404</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.66302698410616</v>
+        <v>6.401947484420722</v>
       </c>
       <c r="E13">
-        <v>13.5438917780587</v>
+        <v>10.28870248605448</v>
       </c>
       <c r="F13">
-        <v>43.11686859433106</v>
+        <v>37.17840213434048</v>
       </c>
       <c r="G13">
-        <v>2.013567757277796</v>
+        <v>3.656733255835167</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.63001904175179</v>
+        <v>21.88365786902492</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>27.32570522578275</v>
+        <v>17.41739762084493</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>24.68444899313653</v>
+        <v>17.80100358846047</v>
       </c>
       <c r="N13">
-        <v>12.50999715786197</v>
+        <v>19.85543945830361</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.867742432504966</v>
+        <v>5.309603718674265</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.682048556237796</v>
+        <v>6.406216175507982</v>
       </c>
       <c r="E14">
-        <v>13.40340288463081</v>
+        <v>10.25859860258891</v>
       </c>
       <c r="F14">
-        <v>42.75453120997349</v>
+        <v>37.10156128320993</v>
       </c>
       <c r="G14">
-        <v>2.01594587807349</v>
+        <v>3.65741748820254</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.62050646793721</v>
+        <v>21.88898456208398</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>27.05460514488989</v>
+        <v>17.33618147800935</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>24.43970956876101</v>
+        <v>17.74550572237738</v>
       </c>
       <c r="N14">
-        <v>12.54593280022521</v>
+        <v>19.8649057179018</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.838630488131304</v>
+        <v>5.300621767880027</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.693738309498332</v>
+        <v>6.408844205424034</v>
       </c>
       <c r="E15">
-        <v>13.31707897871795</v>
+        <v>10.24017710393017</v>
       </c>
       <c r="F15">
-        <v>42.53262072297645</v>
+        <v>37.05462945360589</v>
       </c>
       <c r="G15">
-        <v>2.017401800320393</v>
+        <v>3.657838889186707</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.61500994815414</v>
+        <v>21.89231460004559</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>26.8878993830873</v>
+        <v>17.28633821857153</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>24.28924512295129</v>
+        <v>17.71152459019232</v>
       </c>
       <c r="N15">
-        <v>12.56806174832167</v>
+        <v>19.87074143035879</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.669043043624527</v>
+        <v>5.249130082931377</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.761280127890408</v>
+        <v>6.424108837572849</v>
       </c>
       <c r="E16">
-        <v>12.81805616243934</v>
+        <v>10.13491620205041</v>
       </c>
       <c r="F16">
-        <v>41.26115956139398</v>
+        <v>36.78782178908616</v>
       </c>
       <c r="G16">
-        <v>2.025738555880643</v>
+        <v>3.660288937464626</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.58840921006182</v>
+        <v>21.91242764755583</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>25.92231324525266</v>
+        <v>16.99932276323483</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>23.4181989313467</v>
+        <v>17.51704723082525</v>
       </c>
       <c r="N16">
-        <v>12.69661261175395</v>
+        <v>19.90475604588218</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.562557811028549</v>
+        <v>5.217540739466532</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.803172566656706</v>
+        <v>6.433655738090763</v>
       </c>
       <c r="E17">
-        <v>12.50785602180839</v>
+        <v>10.07064654072925</v>
       </c>
       <c r="F17">
-        <v>40.48110785598892</v>
+        <v>36.62612248137034</v>
       </c>
       <c r="G17">
-        <v>2.030852077604369</v>
+        <v>3.661823439820724</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.57628876174502</v>
+        <v>21.92568390780921</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>25.32047500584761</v>
+        <v>16.82211155116376</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.87568503991059</v>
+        <v>17.39803137143946</v>
       </c>
       <c r="N17">
-        <v>12.77696641366196</v>
+        <v>19.92613372841228</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.500415788993418</v>
+        <v>5.199377782955716</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.827424153166079</v>
+        <v>6.439213990243934</v>
       </c>
       <c r="E18">
-        <v>12.32786869848</v>
+        <v>10.03380501258819</v>
       </c>
       <c r="F18">
-        <v>40.03234370762635</v>
+        <v>36.53387164519813</v>
       </c>
       <c r="G18">
-        <v>2.033794834629912</v>
+        <v>3.662717650263092</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.57079434875711</v>
+        <v>21.93364516104214</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>24.97070619765109</v>
+        <v>16.71980679712466</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.56053253327767</v>
+        <v>17.32970799635077</v>
       </c>
       <c r="N18">
-        <v>12.82371046621308</v>
+        <v>19.93861731766619</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.479222478206507</v>
+        <v>5.193229859784928</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.835661166785359</v>
+        <v>6.441107452431488</v>
       </c>
       <c r="E19">
-        <v>12.26665201098323</v>
+        <v>10.02135373434263</v>
       </c>
       <c r="F19">
-        <v>39.8803768382954</v>
+        <v>36.5027692091921</v>
       </c>
       <c r="G19">
-        <v>2.034791645827191</v>
+        <v>3.663022411332838</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>15.56918165378351</v>
+        <v>21.93639845907147</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24.85164982109375</v>
+        <v>16.68510723048114</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.4532821983214</v>
+        <v>17.30659982603831</v>
       </c>
       <c r="N19">
-        <v>12.83962577353858</v>
+        <v>19.94287628530616</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.573986054265127</v>
+        <v>5.220902969277054</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.798696640532366</v>
+        <v>6.432632507812203</v>
       </c>
       <c r="E20">
-        <v>12.54103806774048</v>
+        <v>10.07747554076727</v>
       </c>
       <c r="F20">
-        <v>40.56415441180854</v>
+        <v>36.64325818783576</v>
       </c>
       <c r="G20">
-        <v>2.030307610495617</v>
+        <v>3.661658889171369</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>15.57742469556419</v>
+        <v>21.92423790557679</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>25.38491239269952</v>
+        <v>16.84101598534647</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.93375621883492</v>
+        <v>17.41068777890519</v>
       </c>
       <c r="N20">
-        <v>12.76835764826271</v>
+        <v>19.9238386099627</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.881653432097778</v>
+        <v>5.313910225038864</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.676453340704268</v>
+        <v>6.404959579004835</v>
       </c>
       <c r="E21">
-        <v>13.4447237582717</v>
+        <v>10.2674371619748</v>
       </c>
       <c r="F21">
-        <v>42.86095119473269</v>
+        <v>37.12410323872058</v>
       </c>
       <c r="G21">
-        <v>2.015247533752006</v>
+        <v>3.657216035772941</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.62323132699512</v>
+        <v>21.88740595794807</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>27.13436831662242</v>
+        <v>17.36005684671801</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>24.51171029208829</v>
+        <v>17.76180423511819</v>
       </c>
       <c r="N21">
-        <v>12.53535302978284</v>
+        <v>19.86211746308765</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.074657745932445</v>
+        <v>5.374611561928782</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.598248476886094</v>
+        <v>6.38747060396077</v>
       </c>
       <c r="E22">
-        <v>14.02302719364327</v>
+        <v>10.39242801228885</v>
       </c>
       <c r="F22">
-        <v>44.36321505924771</v>
+        <v>37.44449768286756</v>
       </c>
       <c r="G22">
-        <v>2.005376763357495</v>
+        <v>3.654414921015546</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.66776749508446</v>
+        <v>21.8663440623611</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>28.24834744969298</v>
+        <v>17.69508819278815</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>25.51785798382086</v>
+        <v>17.99192392629193</v>
       </c>
       <c r="N22">
-        <v>12.38826172584396</v>
+        <v>19.82345101369779</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.972391246632144</v>
+        <v>5.342228545428953</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.639815297646118</v>
+        <v>6.396750222972574</v>
       </c>
       <c r="E23">
-        <v>13.71541447199035</v>
+        <v>10.32565415986452</v>
       </c>
       <c r="F23">
-        <v>43.56119157892416</v>
+        <v>37.27296439459907</v>
       </c>
       <c r="G23">
-        <v>2.0106497908179</v>
+        <v>3.655900584148888</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>15.642587823917</v>
+        <v>21.87730919381875</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>27.65634187358027</v>
+        <v>17.51669753372516</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>24.98302234116824</v>
+        <v>17.86907075907694</v>
       </c>
       <c r="N23">
-        <v>12.4662643570671</v>
+        <v>19.84393502457981</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.568822216814</v>
+        <v>5.219382909271232</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.800719689203773</v>
+        <v>6.433094893385855</v>
       </c>
       <c r="E24">
-        <v>12.52604161886456</v>
+        <v>10.07438781057485</v>
       </c>
       <c r="F24">
-        <v>40.52661002350974</v>
+        <v>36.63550891002148</v>
       </c>
       <c r="G24">
-        <v>2.030553754519851</v>
+        <v>3.661733245119145</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.57690656489175</v>
+        <v>21.92489058413872</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>25.35579200289163</v>
+        <v>16.8324706008241</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.90751240166226</v>
+        <v>17.40496549839742</v>
       </c>
       <c r="N24">
-        <v>12.77224797062358</v>
+        <v>19.92487563100913</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.099401865220506</v>
+        <v>5.08720693419875</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.980211634748616</v>
+        <v>6.474865716814605</v>
       </c>
       <c r="E25">
-        <v>11.18244651471425</v>
+        <v>9.808285333594032</v>
       </c>
       <c r="F25">
-        <v>37.24963452830388</v>
+        <v>35.977069062351</v>
       </c>
       <c r="G25">
-        <v>2.052102021959049</v>
+        <v>3.668468898349057</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>15.56183412478667</v>
+        <v>21.98907568383997</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.73517467385765</v>
+        <v>16.08056638073072</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.54861672387132</v>
+        <v>16.90970062450446</v>
       </c>
       <c r="N25">
-        <v>13.12228216769656</v>
+        <v>20.01936007264079</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_141/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_141/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.990939164366616</v>
+        <v>5.725167156546349</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.507840982241279</v>
+        <v>4.116652021301878</v>
       </c>
       <c r="E2">
-        <v>9.618012127186548</v>
+        <v>10.31053767892599</v>
       </c>
       <c r="F2">
-        <v>35.52019024459483</v>
+        <v>34.82991223333292</v>
       </c>
       <c r="G2">
-        <v>3.673815597944844</v>
+        <v>2.068224493907817</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>22.04732753250851</v>
+        <v>15.59184089098921</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.51992752456134</v>
+        <v>20.6734070644038</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.55245628148672</v>
+        <v>18.69663100298665</v>
       </c>
       <c r="N2">
-        <v>20.09511346026386</v>
+        <v>13.39535376098192</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.926753005089897</v>
+        <v>5.454218676245274</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.531579384626017</v>
+        <v>4.21162007054825</v>
       </c>
       <c r="E3">
-        <v>9.493302215870655</v>
+        <v>9.706739016264203</v>
       </c>
       <c r="F3">
-        <v>35.22932169372265</v>
+        <v>33.18751618158458</v>
       </c>
       <c r="G3">
-        <v>3.677683319687123</v>
+        <v>2.079389767690021</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>22.09362646585049</v>
+        <v>15.63474779567944</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.13835380996798</v>
+        <v>19.18825696328536</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.31641927516037</v>
+        <v>17.36466143897105</v>
       </c>
       <c r="N3">
-        <v>20.15031718537049</v>
+        <v>13.58935249312429</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.887998066698472</v>
+        <v>5.279539497921742</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.546842910673605</v>
+        <v>4.271151441143177</v>
       </c>
       <c r="E4">
-        <v>9.419053196848148</v>
+        <v>9.329094939829186</v>
       </c>
       <c r="F4">
-        <v>35.06039453937645</v>
+        <v>32.17941677550224</v>
       </c>
       <c r="G4">
-        <v>3.680179439977323</v>
+        <v>2.086385744725071</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22.12540637956185</v>
+        <v>15.67129766562238</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.90425849524191</v>
+        <v>18.23144102409157</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.17496664291349</v>
+        <v>16.50744590904588</v>
       </c>
       <c r="N4">
-        <v>20.18612116220475</v>
+        <v>13.71272492220979</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.872390437883902</v>
+        <v>5.206307890223958</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.553236201918351</v>
+        <v>4.295718771055991</v>
       </c>
       <c r="E5">
-        <v>9.389414507076193</v>
+        <v>9.173563082285394</v>
       </c>
       <c r="F5">
-        <v>34.99404489475332</v>
+        <v>31.76903433624634</v>
       </c>
       <c r="G5">
-        <v>3.681227258455599</v>
+        <v>2.089275010989998</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22.13919803528738</v>
+        <v>15.68862858209969</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.80906765839697</v>
+        <v>17.8300170501669</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.11826912038409</v>
+        <v>16.14802214114825</v>
       </c>
       <c r="N5">
-        <v>20.20119178115052</v>
+        <v>13.76405244904925</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.869810589602809</v>
+        <v>5.194025518481203</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.554308276734658</v>
+        <v>4.29981681798589</v>
       </c>
       <c r="E6">
-        <v>9.384531342483179</v>
+        <v>9.147641833538165</v>
       </c>
       <c r="F6">
-        <v>34.98317955709946</v>
+        <v>31.70092796348429</v>
       </c>
       <c r="G6">
-        <v>3.681403101405924</v>
+        <v>2.089757171459996</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>22.14153887340739</v>
+        <v>15.69164988377335</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.79327832834815</v>
+        <v>17.76265944923406</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.10891370642628</v>
+        <v>16.08772445720392</v>
       </c>
       <c r="N6">
-        <v>20.20372325728087</v>
+        <v>13.77263844888472</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.887786799501153</v>
+        <v>5.278560102812399</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.546928430911449</v>
+        <v>4.271481515550067</v>
       </c>
       <c r="E7">
-        <v>9.418650931260622</v>
+        <v>9.327003858121518</v>
       </c>
       <c r="F7">
-        <v>35.05948957157163</v>
+        <v>32.17387997665809</v>
       </c>
       <c r="G7">
-        <v>3.680193447048997</v>
+        <v>2.086424551283838</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22.125588975714</v>
+        <v>15.67152169664139</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.90297367865235</v>
+        <v>18.22607417458954</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.17419807847738</v>
+        <v>16.50263974750652</v>
       </c>
       <c r="N7">
-        <v>20.18632246522423</v>
+        <v>13.7134129034767</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.968684036764326</v>
+        <v>5.633493282229471</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.515883336391759</v>
+        <v>4.149143408738041</v>
       </c>
       <c r="E8">
-        <v>9.57455087142322</v>
+        <v>10.10382827150645</v>
       </c>
       <c r="F8">
-        <v>35.41792908028361</v>
+        <v>34.2637213212952</v>
       </c>
       <c r="G8">
-        <v>3.675124080969409</v>
+        <v>2.072047037010163</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>22.06259456072215</v>
+        <v>15.60443683349269</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.38841335169359</v>
+        <v>20.17051716417962</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.47039309890616</v>
+        <v>18.2454168439241</v>
       </c>
       <c r="N8">
-        <v>20.11375171437296</v>
+        <v>13.46134891598543</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.131619422700456</v>
+        <v>6.262026776705204</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.460451148125277</v>
+        <v>3.919047792110692</v>
       </c>
       <c r="E9">
-        <v>9.897139049378055</v>
+        <v>11.64385002266793</v>
       </c>
       <c r="F9">
-        <v>36.19471375917445</v>
+        <v>38.35454583143511</v>
       </c>
       <c r="G9">
-        <v>3.666140174219825</v>
+        <v>2.044815109926984</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>21.96574255728804</v>
+        <v>15.56009257784089</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.335282790329</v>
+        <v>23.63769653988811</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.07557060641579</v>
+        <v>21.36037295684144</v>
       </c>
       <c r="N9">
-        <v>19.98657292281171</v>
+        <v>13.00188651768138</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.252735025288806</v>
+        <v>6.681072135189267</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.423028562558724</v>
+        <v>3.756521884550982</v>
       </c>
       <c r="E10">
-        <v>10.14226578494014</v>
+        <v>12.85324489170117</v>
       </c>
       <c r="F10">
-        <v>36.80637305569483</v>
+        <v>41.35016074004783</v>
       </c>
       <c r="G10">
-        <v>3.660115409898228</v>
+        <v>2.025155149648918</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>21.91096067023519</v>
+        <v>15.58999707300634</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>17.01948969477802</v>
+        <v>25.99050706453951</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.53064376098246</v>
+        <v>23.47968995195276</v>
       </c>
       <c r="N10">
-        <v>19.90234213983214</v>
+        <v>12.68751655781872</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.307886217678909</v>
+        <v>6.862186047116807</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.406717944338693</v>
+        <v>3.684281745249852</v>
       </c>
       <c r="E11">
-        <v>10.25507475628799</v>
+        <v>13.38691131307131</v>
       </c>
       <c r="F11">
-        <v>37.09257839567319</v>
+        <v>42.71209349679238</v>
       </c>
       <c r="G11">
-        <v>3.657497937132963</v>
+        <v>2.016224335016045</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>21.88961737745928</v>
+        <v>15.61943591761518</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.32665554504886</v>
+        <v>27.02276467028769</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.73900667693052</v>
+        <v>24.4109693025217</v>
       </c>
       <c r="N11">
-        <v>19.866019469106</v>
+        <v>12.55015762486693</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.3287578994862</v>
+        <v>6.929385741582996</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.400643878552204</v>
+        <v>3.657210083668686</v>
       </c>
       <c r="E12">
-        <v>10.29794025881503</v>
+        <v>13.58686445911937</v>
       </c>
       <c r="F12">
-        <v>37.20201756042348</v>
+        <v>43.22798903592781</v>
       </c>
       <c r="G12">
-        <v>3.65652435948944</v>
+        <v>2.012838198153624</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>21.88205138656825</v>
+        <v>15.63306930924379</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.44226209713271</v>
+        <v>27.4085778254483</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.81802572647701</v>
+        <v>24.75927612482634</v>
       </c>
       <c r="N12">
-        <v>19.85255168854276</v>
+        <v>12.49902550110065</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.324263707112404</v>
+        <v>6.914974881075437</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.401947484420722</v>
+        <v>3.66302698410609</v>
       </c>
       <c r="E13">
-        <v>10.28870248605448</v>
+        <v>13.54389177805872</v>
       </c>
       <c r="F13">
-        <v>37.17840213434048</v>
+        <v>43.11686859433106</v>
       </c>
       <c r="G13">
-        <v>3.656733255835167</v>
+        <v>2.013567757277796</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>21.88365786902492</v>
+        <v>15.63001904175175</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.41739762084493</v>
+        <v>27.32570522578277</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.80100358846047</v>
+        <v>24.68444899313657</v>
       </c>
       <c r="N13">
-        <v>19.85543945830361</v>
+        <v>12.5099971578619</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.309603718674265</v>
+        <v>6.867742432505038</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.406216175507982</v>
+        <v>3.682048556237844</v>
       </c>
       <c r="E14">
-        <v>10.25859860258891</v>
+        <v>13.40340288463079</v>
       </c>
       <c r="F14">
-        <v>37.10156128320993</v>
+        <v>42.75453120997346</v>
       </c>
       <c r="G14">
-        <v>3.65741748820254</v>
+        <v>2.015945878073488</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>21.88898456208398</v>
+        <v>15.62050646793714</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.33618147800935</v>
+        <v>27.05460514488992</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.74550572237738</v>
+        <v>24.43970956876104</v>
       </c>
       <c r="N14">
-        <v>19.8649057179018</v>
+        <v>12.54593280022518</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.300621767880027</v>
+        <v>6.838630488131379</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.408844205424034</v>
+        <v>3.693738309498222</v>
       </c>
       <c r="E15">
-        <v>10.24017710393017</v>
+        <v>13.31707897871805</v>
       </c>
       <c r="F15">
-        <v>37.05462945360589</v>
+        <v>42.53262072297635</v>
       </c>
       <c r="G15">
-        <v>3.657838889186707</v>
+        <v>2.017401800320261</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>21.89231460004559</v>
+        <v>15.61500994815404</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>17.28633821857153</v>
+        <v>26.88789938308722</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.71152459019232</v>
+        <v>24.28924512295129</v>
       </c>
       <c r="N15">
-        <v>19.87074143035879</v>
+        <v>12.56806174832166</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.249130082931377</v>
+        <v>6.669043043624559</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.424108837572849</v>
+        <v>3.761280127890426</v>
       </c>
       <c r="E16">
-        <v>10.13491620205041</v>
+        <v>12.81805616243935</v>
       </c>
       <c r="F16">
-        <v>36.78782178908616</v>
+        <v>41.26115956139405</v>
       </c>
       <c r="G16">
-        <v>3.660288937464626</v>
+        <v>2.02573855588051</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>21.91242764755583</v>
+        <v>15.58840921006185</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.99932276323483</v>
+        <v>25.92231324525272</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.51704723082525</v>
+        <v>23.41819893134677</v>
       </c>
       <c r="N16">
-        <v>19.90475604588218</v>
+        <v>12.69661261175396</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.217540739466532</v>
+        <v>6.56255781102868</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.433655738090763</v>
+        <v>3.803172566656784</v>
       </c>
       <c r="E17">
-        <v>10.07064654072925</v>
+        <v>12.50785602180828</v>
       </c>
       <c r="F17">
-        <v>36.62612248137034</v>
+        <v>40.48110785598891</v>
       </c>
       <c r="G17">
-        <v>3.661823439820724</v>
+        <v>2.030852077604369</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>21.92568390780921</v>
+        <v>15.57628876174489</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.82211155116376</v>
+        <v>25.32047500584772</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.39803137143946</v>
+        <v>22.8756850399106</v>
       </c>
       <c r="N17">
-        <v>19.92613372841228</v>
+        <v>12.77696641366191</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.199377782955716</v>
+        <v>6.500415788993412</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.439213990243934</v>
+        <v>3.827424153166076</v>
       </c>
       <c r="E18">
-        <v>10.03380501258819</v>
+        <v>12.32786869848001</v>
       </c>
       <c r="F18">
-        <v>36.53387164519813</v>
+        <v>40.03234370762631</v>
       </c>
       <c r="G18">
-        <v>3.662717650263092</v>
+        <v>2.033794834629912</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>21.93364516104214</v>
+        <v>15.57079434875703</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16.71980679712466</v>
+        <v>24.9707061976512</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.32970799635077</v>
+        <v>22.56053253327772</v>
       </c>
       <c r="N18">
-        <v>19.93861731766619</v>
+        <v>12.82371046621303</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.193229859784928</v>
+        <v>6.479222478206462</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.441107452431488</v>
+        <v>3.835661166785346</v>
       </c>
       <c r="E19">
-        <v>10.02135373434263</v>
+        <v>12.26665201098323</v>
       </c>
       <c r="F19">
-        <v>36.5027692091921</v>
+        <v>39.88037683829536</v>
       </c>
       <c r="G19">
-        <v>3.663022411332838</v>
+        <v>2.034791645827323</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>21.93639845907147</v>
+        <v>15.5691816537835</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.68510723048114</v>
+        <v>24.85164982109377</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.30659982603831</v>
+        <v>22.45328219832139</v>
       </c>
       <c r="N19">
-        <v>19.94287628530616</v>
+        <v>12.83962577353855</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.220902969277054</v>
+        <v>6.573986054265204</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.432632507812203</v>
+        <v>3.798696640532371</v>
       </c>
       <c r="E20">
-        <v>10.07747554076727</v>
+        <v>12.54103806774048</v>
       </c>
       <c r="F20">
-        <v>36.64325818783576</v>
+        <v>40.5641544118086</v>
       </c>
       <c r="G20">
-        <v>3.661658889171369</v>
+        <v>2.030307610495885</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>21.92423790557679</v>
+        <v>15.57742469556415</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.84101598534647</v>
+        <v>25.38491239269955</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.41068777890519</v>
+        <v>22.93375621883495</v>
       </c>
       <c r="N20">
-        <v>19.9238386099627</v>
+        <v>12.76835764826269</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.313910225038864</v>
+        <v>6.881653432097741</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.404959579004835</v>
+        <v>3.676453340704401</v>
       </c>
       <c r="E21">
-        <v>10.2674371619748</v>
+        <v>13.44472375827166</v>
       </c>
       <c r="F21">
-        <v>37.12410323872058</v>
+        <v>42.86095119473268</v>
       </c>
       <c r="G21">
-        <v>3.657216035772941</v>
+        <v>2.015247533752138</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>21.88740595794807</v>
+        <v>15.62323132699513</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.36005684671801</v>
+        <v>27.1343683166225</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.76180423511819</v>
+        <v>24.51171029208834</v>
       </c>
       <c r="N21">
-        <v>19.86211746308765</v>
+        <v>12.53535302978281</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.374611561928782</v>
+        <v>7.074657745932392</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.38747060396077</v>
+        <v>3.598248476886053</v>
       </c>
       <c r="E22">
-        <v>10.39242801228885</v>
+        <v>14.02302719364326</v>
       </c>
       <c r="F22">
-        <v>37.44449768286756</v>
+        <v>44.36321505924774</v>
       </c>
       <c r="G22">
-        <v>3.654414921015546</v>
+        <v>2.005376763357497</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>21.8663440623611</v>
+        <v>15.66776749508446</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.69508819278815</v>
+        <v>28.24834744969305</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.99192392629193</v>
+        <v>25.51785798382089</v>
       </c>
       <c r="N22">
-        <v>19.82345101369779</v>
+        <v>12.38826172584392</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.342228545428953</v>
+        <v>6.972391246632151</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.396750222972574</v>
+        <v>3.639815297646196</v>
       </c>
       <c r="E23">
-        <v>10.32565415986452</v>
+        <v>13.71541447199041</v>
       </c>
       <c r="F23">
-        <v>37.27296439459907</v>
+        <v>43.56119157892412</v>
       </c>
       <c r="G23">
-        <v>3.655900584148888</v>
+        <v>2.010649790817504</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>21.87730919381875</v>
+        <v>15.64258782391697</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.51669753372516</v>
+        <v>27.65634187358021</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.86907075907694</v>
+        <v>24.9830223411682</v>
       </c>
       <c r="N23">
-        <v>19.84393502457981</v>
+        <v>12.46626435706708</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.219382909271232</v>
+        <v>6.568822216814098</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.433094893385855</v>
+        <v>3.800719689203831</v>
       </c>
       <c r="E24">
-        <v>10.07438781057485</v>
+        <v>12.52604161886454</v>
       </c>
       <c r="F24">
-        <v>36.63550891002148</v>
+        <v>40.52661002350967</v>
       </c>
       <c r="G24">
-        <v>3.661733245119145</v>
+        <v>2.030553754519989</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>21.92489058413872</v>
+        <v>15.57690656489173</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.8324706008241</v>
+        <v>25.35579200289163</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.40496549839742</v>
+        <v>22.90751240166225</v>
       </c>
       <c r="N24">
-        <v>19.92487563100913</v>
+        <v>12.77224797062362</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.08720693419875</v>
+        <v>6.099401865220646</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.474865716814605</v>
+        <v>3.980211634748484</v>
       </c>
       <c r="E25">
-        <v>9.808285333594032</v>
+        <v>11.18244651471424</v>
       </c>
       <c r="F25">
-        <v>35.977069062351</v>
+        <v>37.24963452830388</v>
       </c>
       <c r="G25">
-        <v>3.668468898349057</v>
+        <v>2.052102021959183</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>21.98907568383997</v>
+        <v>15.5618341247866</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.08056638073072</v>
+        <v>22.73517467385767</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.90970062450446</v>
+        <v>20.54861672387132</v>
       </c>
       <c r="N25">
-        <v>20.01936007264079</v>
+        <v>13.12228216769656</v>
       </c>
       <c r="O25">
         <v>0</v>
